--- a/Assets/StreamingAssets/levels/Level0.xlsx
+++ b/Assets/StreamingAssets/levels/Level0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8ECE42-80FB-470C-B0FC-644619110D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35406D19-485C-4BAB-B86F-F8008D66D1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15756" yWindow="2280" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="13272" yWindow="2400" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,11 @@
     <t>Background</t>
   </si>
   <si>
-    <t>BgTest.png</t>
-  </si>
-  <si>
     <t>MainMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bg9.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +417,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -442,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -450,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
